--- a/veh_case/cc_noload_none.xlsx
+++ b/veh_case/cc_noload_none.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,60 +439,80 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>weather</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>illumination</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>load</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>speed_limit</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>tv</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>road_geo</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rm_execution</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>initial status of hv</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>initial status of tv</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>action of hv</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>action of tv</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>rm_sub_criteria</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>rm_obj_criteria</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
         <is>
           <t>subjective criteria</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>objective criteria</t>
         </is>
@@ -516,55 +536,73 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -591,55 +629,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -666,55 +722,73 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -741,55 +815,73 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -816,55 +908,73 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -891,55 +1001,73 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -966,55 +1094,73 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1041,55 +1187,73 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1116,55 +1280,73 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1191,55 +1373,73 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>cruise w/o target</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>初始速度80或100kph</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1266,55 +1466,73 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1342,55 +1560,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1418,55 +1654,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1494,55 +1748,73 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1570,55 +1842,73 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1646,55 +1936,73 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1722,55 +2030,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1798,55 +2124,73 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1874,55 +2218,73 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -1950,55 +2312,73 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>uphill</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -2026,55 +2406,73 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>moving engage</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>downhill</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>1）以限速车速稳定巡航，允许有少量波动；
 2）档位合理，油耗经济；
@@ -2102,55 +2500,73 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2176,55 +2592,73 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2250,55 +2684,73 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2324,55 +2776,73 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2398,55 +2868,73 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2472,55 +2960,73 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2546,55 +3052,73 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2620,55 +3144,73 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2694,55 +3236,73 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2768,55 +3328,73 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2842,55 +3420,73 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2916,55 +3512,73 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -2990,55 +3604,73 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3064,55 +3696,73 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3138,55 +3788,73 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3212,55 +3880,73 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3286,55 +3972,73 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3360,55 +4064,73 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3434,55 +4156,73 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3508,55 +4248,73 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3582,55 +4340,73 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3656,55 +4432,73 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R44" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3730,55 +4524,73 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>moving engage w/ bias</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>sunny</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>noload</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>80kph</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>none</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>curve</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2211/1408</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>初速度40kph</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1422</v>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>1）主车在偏置状态下进AD后，应当及时调整车道保持至居中状态；
 2）方向的调整幅度不能过大，次数不能过多；
@@ -3787,6 +4599,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>